--- a/resources/xlsx/支持适配器表格.xlsx
+++ b/resources/xlsx/支持适配器表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XiaoK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CommonFiles\mijia-plugin\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72843C8-388E-494F-B8AF-5DC25002649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7ADBE7-B662-4B0C-B1BC-F058A0458168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,13 +343,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MiSans Medium"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="MiSans Medium"/>
       <family val="3"/>
       <charset val="134"/>
@@ -678,14 +671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.375" customWidth="1"/>
-    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
